--- a/biology/Botanique/Zosterophyllopsida/Zosterophyllopsida.xlsx
+++ b/biology/Botanique/Zosterophyllopsida/Zosterophyllopsida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Zostérophylopsides (Zosterophyllopsida), couramment appelés Zostérophylles, sont une classe éteinte de plantes proches des Lycophytes. Dans certaines classifications, elles correspondent à la division des Zostérophyllophytes (Zosterophyllophyta) .
 Ce sont des plantes archaïques qui, bien qu'elles ne possédaient pas de microphylles, sont rapprochées des Lycophytes au sein de la branche des Lycopodiophytines. Elles sont aujourd'hui considérées comme un groupe-tronc paraphylétique de cette branche basal des Trachéophytes
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Classification des genres selon Novikov &amp; Barabasz-Krasny (2015)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Classification des genres selon Novikov &amp; Barabasz-Krasny (2015) :
 Division Zosterophyllophyta H. Bold :
 Classe † Zosterophyllopsida Foster et Gifford :
 Ordre † Zosterophyllales Bierhorst :
@@ -564,9 +578,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un cladogramme sommaire, produit par Crane et al. en 2004, place le groupe paraphylétique de Zostérophylles largement définies, basal aux Lycopsides[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un cladogramme sommaire, produit par Crane et al. en 2004, place le groupe paraphylétique de Zostérophylles largement définies, basal aux Lycopsides :
 </t>
         </is>
       </c>
@@ -595,7 +611,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) A.S.Foster &amp; Gifford in D.W. Bierhorst, Comp Morph. Vasc. Pl.: 106, 110 (1974).</t>
         </is>
